--- a/packages/server/template/sale_template.xlsx
+++ b/packages/server/template/sale_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28160" windowHeight="11960"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -64,6 +64,67 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -71,32 +132,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,30 +170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,60 +184,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,43 +209,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,139 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +407,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,32 +423,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,11 +451,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,148 +503,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -654,54 +654,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1037,14 +1037,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.2307692307692" customWidth="1"/>
-    <col min="2" max="2" width="35.6923076923077" customWidth="1"/>
-    <col min="3" max="7" width="12.3076923076923" customWidth="1"/>
+    <col min="1" max="1" width="15.2333333333333" customWidth="1"/>
+    <col min="2" max="2" width="35.6916666666667" customWidth="1"/>
+    <col min="3" max="7" width="12.3083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/packages/server/template/sale_template.xlsx
+++ b/packages/server/template/sale_template.xlsx
@@ -4,13 +4,62 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>wzl</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">必填项
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">必填项
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有当前列的话就必填。
+在不需要导入“销售时间”的情况下可以将当前列删除掉</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,17 +91,39 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,6 +142,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -80,14 +180,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,26 +202,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,75 +218,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,19 +263,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,157 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,30 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,16 +488,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,11 +513,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,16 +549,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,138 +578,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,24 +1099,24 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.2333333333333" customWidth="1"/>
-    <col min="2" max="2" width="35.6916666666667" customWidth="1"/>
-    <col min="3" max="7" width="12.3083333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.2363636363636" customWidth="1"/>
+    <col min="2" max="2" width="35.6909090909091" customWidth="1"/>
+    <col min="3" max="7" width="12.3090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1063,31 +1125,32 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="7:7">
-      <c r="G2" s="1"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="7:7">
-      <c r="G3" s="1"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="7:7">
-      <c r="G4" s="1"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="1"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="1"/>
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/packages/server/template/sale_template.xlsx
+++ b/packages/server/template/sale_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowHeight="24160"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
@@ -45,19 +45,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>有当前列的话就必填。
-在不需要导入“销售时间”的情况下可以将当前列删除掉</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -91,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,30 +92,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,22 +176,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,22 +207,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,45 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -269,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +447,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,15 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -498,39 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,210 +538,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1099,14 +1087,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.2363636363636" customWidth="1"/>
-    <col min="2" max="2" width="35.6909090909091" customWidth="1"/>
-    <col min="3" max="7" width="12.3090909090909" customWidth="1"/>
+    <col min="1" max="1" width="15.2403846153846" customWidth="1"/>
+    <col min="2" max="2" width="35.6923076923077" customWidth="1"/>
+    <col min="3" max="7" width="12.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1128,24 +1116,24 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="7:7">
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="7:7">
-      <c r="G3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="7:7">
-      <c r="G4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
